--- a/artfynd/A 3992-2026 artfynd.xlsx
+++ b/artfynd/A 3992-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY65"/>
+  <dimension ref="A1:AY92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2661,7 +2661,7 @@
         <v>130865454</v>
       </c>
       <c r="B22" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>130865266</v>
       </c>
       <c r="B23" t="n">
-        <v>91800</v>
+        <v>91804</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>130865254</v>
       </c>
       <c r="B24" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2994,10 +2994,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130865182</v>
+        <v>130865004</v>
       </c>
       <c r="B25" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3005,34 +3005,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>468493</v>
+        <v>468518</v>
       </c>
       <c r="R25" t="n">
-        <v>7017468</v>
+        <v>7017522</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3064,7 +3069,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3074,7 +3079,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3101,10 +3111,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130865004</v>
+        <v>130865182</v>
       </c>
       <c r="B26" t="n">
-        <v>57880</v>
+        <v>91808</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3112,39 +3122,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>468518</v>
+        <v>468493</v>
       </c>
       <c r="R26" t="n">
-        <v>7017522</v>
+        <v>7017468</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3176,7 +3181,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3186,12 +3191,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3221,7 +3221,7 @@
         <v>130865357</v>
       </c>
       <c r="B27" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>130865432</v>
       </c>
       <c r="B28" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>130865409</v>
       </c>
       <c r="B29" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>130865230</v>
       </c>
       <c r="B30" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>130864922</v>
       </c>
       <c r="B31" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3798,10 +3798,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130865481</v>
+        <v>130865014</v>
       </c>
       <c r="B32" t="n">
-        <v>79239</v>
+        <v>58043</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3809,34 +3809,43 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>468481</v>
+        <v>468521</v>
       </c>
       <c r="R32" t="n">
-        <v>7017551</v>
+        <v>7017519</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -3868,7 +3877,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -3878,7 +3887,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3905,10 +3914,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130865014</v>
+        <v>130865481</v>
       </c>
       <c r="B33" t="n">
-        <v>58039</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3916,43 +3925,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>468521</v>
+        <v>468481</v>
       </c>
       <c r="R33" t="n">
-        <v>7017519</v>
+        <v>7017551</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4024,7 +4024,7 @@
         <v>131004176</v>
       </c>
       <c r="B34" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>131014503</v>
       </c>
       <c r="B35" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>131006989</v>
       </c>
       <c r="B36" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>131007096</v>
       </c>
       <c r="B37" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>131008392</v>
       </c>
       <c r="B38" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>131005337</v>
       </c>
       <c r="B39" t="n">
-        <v>78996</v>
+        <v>79000</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>131004190</v>
       </c>
       <c r="B40" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>131007087</v>
       </c>
       <c r="B41" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>131031661</v>
       </c>
       <c r="B42" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5076,10 +5076,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131029902</v>
+        <v>131031743</v>
       </c>
       <c r="B43" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5087,48 +5087,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>i par</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>par i lämplig häckbiotop</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>468507</v>
+        <v>468070</v>
       </c>
       <c r="R43" t="n">
-        <v>7017469</v>
+        <v>7017311</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5160,7 +5146,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5170,12 +5156,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:10</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>2+1. Födosök på samma gran. Mycket höga livsmiljövärden för tretå i närområdet. Tredje fågel flög bort.</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5202,10 +5183,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131031743</v>
+        <v>131029902</v>
       </c>
       <c r="B44" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5213,34 +5194,48 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>i par</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>par i lämplig häckbiotop</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>468070</v>
+        <v>468507</v>
       </c>
       <c r="R44" t="n">
-        <v>7017311</v>
+        <v>7017469</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5272,7 +5267,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5282,7 +5277,12 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>13:10</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>2+1. Födosök på samma gran. Mycket höga livsmiljövärden för tretå i närområdet. Tredje fågel flög bort.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5312,7 +5312,7 @@
         <v>131030403</v>
       </c>
       <c r="B45" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5426,10 +5426,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131030656</v>
+        <v>131030207</v>
       </c>
       <c r="B46" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -5466,13 +5466,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>468332</v>
+        <v>468282</v>
       </c>
       <c r="R46" t="n">
-        <v>7017164</v>
+        <v>7017338</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Gott om barkfläkta granar i området</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5543,10 +5543,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131031771</v>
+        <v>131030656</v>
       </c>
       <c r="B47" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5554,34 +5554,39 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>468053</v>
+        <v>468332</v>
       </c>
       <c r="R47" t="n">
-        <v>7017383</v>
+        <v>7017164</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5613,7 +5618,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5623,7 +5628,12 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:59</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Gott om barkfläkta granar i området</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5650,10 +5660,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131030207</v>
+        <v>131031771</v>
       </c>
       <c r="B48" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5661,42 +5671,37 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>468282</v>
+        <v>468053</v>
       </c>
       <c r="R48" t="n">
-        <v>7017338</v>
+        <v>7017383</v>
       </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5725,7 +5730,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5735,12 +5740,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>13:33</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5770,7 +5770,7 @@
         <v>131031626</v>
       </c>
       <c r="B49" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>131030164</v>
       </c>
       <c r="B50" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>131030316</v>
       </c>
       <c r="B51" t="n">
-        <v>80373</v>
+        <v>80377</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>131030066</v>
       </c>
       <c r="B52" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>131030182</v>
       </c>
       <c r="B53" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>131030305</v>
       </c>
       <c r="B54" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>131031769</v>
       </c>
       <c r="B55" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6546,10 +6546,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131031498</v>
+        <v>131030313</v>
       </c>
       <c r="B56" t="n">
-        <v>57880</v>
+        <v>80348</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6557,53 +6557,37 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>468224</v>
+        <v>468321</v>
       </c>
       <c r="R56" t="n">
-        <v>7017146</v>
+        <v>7017305</v>
       </c>
       <c r="S56" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -6632,7 +6616,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6642,12 +6626,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Bearbetade medelgrov gran. Flög över till klenare gran när jag närmade mig men förvånansvärt obrydd.</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6674,10 +6653,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131030313</v>
+        <v>131030174</v>
       </c>
       <c r="B57" t="n">
-        <v>80344</v>
+        <v>58043</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6685,37 +6664,42 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>468321</v>
+        <v>468273</v>
       </c>
       <c r="R57" t="n">
-        <v>7017305</v>
+        <v>7017348</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -6744,7 +6728,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6754,7 +6738,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6781,10 +6765,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131030174</v>
+        <v>131029927</v>
       </c>
       <c r="B58" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6809,7 +6793,11 @@
           <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
           <t>lockläte, övriga läten</t>
@@ -6817,14 +6805,14 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>468273</v>
+        <v>468509</v>
       </c>
       <c r="R58" t="n">
-        <v>7017348</v>
+        <v>7017474</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6856,7 +6844,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6866,7 +6854,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6893,10 +6881,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131029927</v>
+        <v>131031498</v>
       </c>
       <c r="B59" t="n">
-        <v>58039</v>
+        <v>57884</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6904,43 +6892,50 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>hane</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>468509</v>
+        <v>468224</v>
       </c>
       <c r="R59" t="n">
-        <v>7017474</v>
+        <v>7017146</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6972,7 +6967,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6982,7 +6977,12 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>Bearbetade medelgrov gran. Flög över till klenare gran när jag närmade mig men förvånansvärt obrydd.</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7012,7 +7012,7 @@
         <v>131030168</v>
       </c>
       <c r="B60" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7116,10 +7116,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131031575</v>
+        <v>131031735</v>
       </c>
       <c r="B61" t="n">
-        <v>80344</v>
+        <v>91804</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7127,21 +7127,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6458</v>
+        <v>1108</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7151,10 +7151,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>468209</v>
+        <v>468074</v>
       </c>
       <c r="R61" t="n">
-        <v>7017210</v>
+        <v>7017313</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7196,12 +7196,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>14:25</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>På sälg</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7228,10 +7223,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131031735</v>
+        <v>131031575</v>
       </c>
       <c r="B62" t="n">
-        <v>91800</v>
+        <v>80348</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7239,21 +7234,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1108</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7263,10 +7258,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>468074</v>
+        <v>468209</v>
       </c>
       <c r="R62" t="n">
-        <v>7017313</v>
+        <v>7017210</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7298,7 +7293,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7308,7 +7303,12 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:25</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7338,7 +7338,7 @@
         <v>131031510</v>
       </c>
       <c r="B63" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>131035155</v>
       </c>
       <c r="B64" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>131030429</v>
       </c>
       <c r="B65" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7657,6 +7657,2637 @@
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>131051493</v>
+      </c>
+      <c r="B66" t="n">
+        <v>91804</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>468072</v>
+      </c>
+      <c r="R66" t="n">
+        <v>7017314</v>
+      </c>
+      <c r="S66" t="n">
+        <v>10</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>131051504</v>
+      </c>
+      <c r="B67" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>468300</v>
+      </c>
+      <c r="R67" t="n">
+        <v>7017272</v>
+      </c>
+      <c r="S67" t="n">
+        <v>10</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>131051506</v>
+      </c>
+      <c r="B68" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>468096</v>
+      </c>
+      <c r="R68" t="n">
+        <v>7017318</v>
+      </c>
+      <c r="S68" t="n">
+        <v>10</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>131051507</v>
+      </c>
+      <c r="B69" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>468247</v>
+      </c>
+      <c r="R69" t="n">
+        <v>7017164</v>
+      </c>
+      <c r="S69" t="n">
+        <v>10</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>131051511</v>
+      </c>
+      <c r="B70" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>468075</v>
+      </c>
+      <c r="R70" t="n">
+        <v>7017357</v>
+      </c>
+      <c r="S70" t="n">
+        <v>10</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT70" t="inlineStr"/>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>131051494</v>
+      </c>
+      <c r="B71" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>468190</v>
+      </c>
+      <c r="R71" t="n">
+        <v>7017343</v>
+      </c>
+      <c r="S71" t="n">
+        <v>10</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>131051490</v>
+      </c>
+      <c r="B72" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>468271</v>
+      </c>
+      <c r="R72" t="n">
+        <v>7017382</v>
+      </c>
+      <c r="S72" t="n">
+        <v>10</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>bål 0,4 m lång</t>
+        </is>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT72" t="inlineStr"/>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>131051508</v>
+      </c>
+      <c r="B73" t="n">
+        <v>92106</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>658</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Fomitopsis rosea</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>468291</v>
+      </c>
+      <c r="R73" t="n">
+        <v>7017134</v>
+      </c>
+      <c r="S73" t="n">
+        <v>10</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX73" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>131051514</v>
+      </c>
+      <c r="B74" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>468097</v>
+      </c>
+      <c r="R74" t="n">
+        <v>7017318</v>
+      </c>
+      <c r="S74" t="n">
+        <v>10</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>131051501</v>
+      </c>
+      <c r="B75" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>468359</v>
+      </c>
+      <c r="R75" t="n">
+        <v>7017199</v>
+      </c>
+      <c r="S75" t="n">
+        <v>10</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT75" t="inlineStr"/>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>131051487</v>
+      </c>
+      <c r="B76" t="n">
+        <v>80348</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>468320</v>
+      </c>
+      <c r="R76" t="n">
+        <v>7017296</v>
+      </c>
+      <c r="S76" t="n">
+        <v>10</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT76" t="inlineStr"/>
+      <c r="AW76" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>131051481</v>
+      </c>
+      <c r="B77" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>468333</v>
+      </c>
+      <c r="R77" t="n">
+        <v>7017253</v>
+      </c>
+      <c r="S77" t="n">
+        <v>10</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT77" t="inlineStr"/>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>131051483</v>
+      </c>
+      <c r="B78" t="n">
+        <v>80348</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>468300</v>
+      </c>
+      <c r="R78" t="n">
+        <v>7017272</v>
+      </c>
+      <c r="S78" t="n">
+        <v>10</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT78" t="inlineStr"/>
+      <c r="AW78" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX78" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>131051491</v>
+      </c>
+      <c r="B79" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>468383</v>
+      </c>
+      <c r="R79" t="n">
+        <v>7017207</v>
+      </c>
+      <c r="S79" t="n">
+        <v>10</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>Ringhack på tall. Med kådflöde.</t>
+        </is>
+      </c>
+      <c r="AD79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT79" t="inlineStr"/>
+      <c r="AW79" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX79" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>131051492</v>
+      </c>
+      <c r="B80" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>468247</v>
+      </c>
+      <c r="R80" t="n">
+        <v>7017186</v>
+      </c>
+      <c r="S80" t="n">
+        <v>10</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT80" t="inlineStr"/>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX80" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>131051482</v>
+      </c>
+      <c r="B81" t="n">
+        <v>91804</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>468092</v>
+      </c>
+      <c r="R81" t="n">
+        <v>7017317</v>
+      </c>
+      <c r="S81" t="n">
+        <v>10</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT81" t="inlineStr"/>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>131051496</v>
+      </c>
+      <c r="B82" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>468306</v>
+      </c>
+      <c r="R82" t="n">
+        <v>7017299</v>
+      </c>
+      <c r="S82" t="n">
+        <v>10</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT82" t="inlineStr"/>
+      <c r="AW82" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX82" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>131051489</v>
+      </c>
+      <c r="B83" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>468318</v>
+      </c>
+      <c r="R83" t="n">
+        <v>7017322</v>
+      </c>
+      <c r="S83" t="n">
+        <v>10</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>Smal bål 0,5 m lång</t>
+        </is>
+      </c>
+      <c r="AD83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT83" t="inlineStr"/>
+      <c r="AW83" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX83" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>131051497</v>
+      </c>
+      <c r="B84" t="n">
+        <v>91828</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>468258</v>
+      </c>
+      <c r="R84" t="n">
+        <v>7017130</v>
+      </c>
+      <c r="S84" t="n">
+        <v>10</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT84" t="inlineStr"/>
+      <c r="AW84" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX84" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>131051498</v>
+      </c>
+      <c r="B85" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>468258</v>
+      </c>
+      <c r="R85" t="n">
+        <v>7017130</v>
+      </c>
+      <c r="S85" t="n">
+        <v>10</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT85" t="inlineStr"/>
+      <c r="AW85" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX85" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>131051486</v>
+      </c>
+      <c r="B86" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>468362</v>
+      </c>
+      <c r="R86" t="n">
+        <v>7017236</v>
+      </c>
+      <c r="S86" t="n">
+        <v>10</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT86" t="inlineStr"/>
+      <c r="AW86" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX86" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>131051503</v>
+      </c>
+      <c r="B87" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>468303</v>
+      </c>
+      <c r="R87" t="n">
+        <v>7017139</v>
+      </c>
+      <c r="S87" t="n">
+        <v>10</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT87" t="inlineStr"/>
+      <c r="AW87" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX87" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>131051495</v>
+      </c>
+      <c r="B88" t="n">
+        <v>80348</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>468306</v>
+      </c>
+      <c r="R88" t="n">
+        <v>7017299</v>
+      </c>
+      <c r="S88" t="n">
+        <v>10</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT88" t="inlineStr"/>
+      <c r="AW88" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX88" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>131051512</v>
+      </c>
+      <c r="B89" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>468093</v>
+      </c>
+      <c r="R89" t="n">
+        <v>7017305</v>
+      </c>
+      <c r="S89" t="n">
+        <v>10</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT89" t="inlineStr"/>
+      <c r="AW89" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX89" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>131051513</v>
+      </c>
+      <c r="B90" t="n">
+        <v>92106</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>658</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Fomitopsis rosea</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>468342</v>
+      </c>
+      <c r="R90" t="n">
+        <v>7017232</v>
+      </c>
+      <c r="S90" t="n">
+        <v>10</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT90" t="inlineStr"/>
+      <c r="AW90" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX90" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>131051502</v>
+      </c>
+      <c r="B91" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>468342</v>
+      </c>
+      <c r="R91" t="n">
+        <v>7017231</v>
+      </c>
+      <c r="S91" t="n">
+        <v>10</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT91" t="inlineStr"/>
+      <c r="AW91" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX91" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>131051488</v>
+      </c>
+      <c r="B92" t="n">
+        <v>91828</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Stacktjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>468309</v>
+      </c>
+      <c r="R92" t="n">
+        <v>7017265</v>
+      </c>
+      <c r="S92" t="n">
+        <v>10</v>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Rödön</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AD92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT92" t="inlineStr"/>
+      <c r="AW92" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AX92" t="inlineStr">
+        <is>
+          <t>Britta Sterner</t>
+        </is>
+      </c>
+      <c r="AY92" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 3992-2026 artfynd.xlsx
+++ b/artfynd/A 3992-2026 artfynd.xlsx
@@ -5309,10 +5309,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131030403</v>
+        <v>131031771</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5320,39 +5320,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>468347</v>
+        <v>468053</v>
       </c>
       <c r="R45" t="n">
-        <v>7017234</v>
+        <v>7017383</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5384,7 +5379,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5394,12 +5389,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:49</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Barkfläkta granar i området</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5426,7 +5416,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131030207</v>
+        <v>131030403</v>
       </c>
       <c r="B46" t="n">
         <v>57884</v>
@@ -5466,13 +5456,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>468282</v>
+        <v>468347</v>
       </c>
       <c r="R46" t="n">
-        <v>7017338</v>
+        <v>7017234</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5501,7 +5491,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5511,12 +5501,12 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Barkfläkta granar i området</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5543,7 +5533,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131030656</v>
+        <v>131030207</v>
       </c>
       <c r="B47" t="n">
         <v>57884</v>
@@ -5574,7 +5564,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5583,13 +5573,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>468332</v>
+        <v>468282</v>
       </c>
       <c r="R47" t="n">
-        <v>7017164</v>
+        <v>7017338</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5618,7 +5608,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5628,12 +5618,12 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Gott om barkfläkta granar i området</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5660,10 +5650,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131031771</v>
+        <v>131030656</v>
       </c>
       <c r="B48" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5671,34 +5661,39 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>468053</v>
+        <v>468332</v>
       </c>
       <c r="R48" t="n">
-        <v>7017383</v>
+        <v>7017164</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5730,7 +5725,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5740,7 +5735,12 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:59</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Gott om barkfläkta granar i området</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6653,10 +6653,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131030174</v>
+        <v>131031498</v>
       </c>
       <c r="B57" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6664,39 +6664,50 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>468273</v>
+        <v>468224</v>
       </c>
       <c r="R57" t="n">
-        <v>7017348</v>
+        <v>7017146</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6728,7 +6739,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6738,7 +6749,12 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Bearbetade medelgrov gran. Flög över till klenare gran när jag närmade mig men förvånansvärt obrydd.</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6765,7 +6781,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131029927</v>
+        <v>131030174</v>
       </c>
       <c r="B58" t="n">
         <v>58043</v>
@@ -6793,11 +6809,7 @@
           <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
           <t>lockläte, övriga läten</t>
@@ -6805,14 +6817,14 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>468509</v>
+        <v>468273</v>
       </c>
       <c r="R58" t="n">
-        <v>7017474</v>
+        <v>7017348</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6844,7 +6856,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6854,7 +6866,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6881,10 +6893,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131031498</v>
+        <v>131029927</v>
       </c>
       <c r="B59" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6892,50 +6904,43 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>hane</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr"/>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>468224</v>
+        <v>468509</v>
       </c>
       <c r="R59" t="n">
-        <v>7017146</v>
+        <v>7017474</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6967,7 +6972,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6977,12 +6982,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>Bearbetade medelgrov gran. Flög över till klenare gran när jag närmade mig men förvånansvärt obrydd.</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD59" t="b">

--- a/artfynd/A 3992-2026 artfynd.xlsx
+++ b/artfynd/A 3992-2026 artfynd.xlsx
@@ -2994,10 +2994,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130865004</v>
+        <v>130865182</v>
       </c>
       <c r="B25" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3005,39 +3005,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>468518</v>
+        <v>468493</v>
       </c>
       <c r="R25" t="n">
-        <v>7017522</v>
+        <v>7017468</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3069,7 +3064,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3079,12 +3074,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3111,10 +3101,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130865182</v>
+        <v>130865004</v>
       </c>
       <c r="B26" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3122,34 +3112,39 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>468493</v>
+        <v>468518</v>
       </c>
       <c r="R26" t="n">
-        <v>7017468</v>
+        <v>7017522</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3181,7 +3176,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3191,7 +3186,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3798,10 +3798,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130865014</v>
+        <v>130865481</v>
       </c>
       <c r="B32" t="n">
-        <v>58043</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3809,43 +3809,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>468521</v>
+        <v>468481</v>
       </c>
       <c r="R32" t="n">
-        <v>7017519</v>
+        <v>7017551</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -3877,7 +3868,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -3887,7 +3878,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3914,10 +3905,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130865481</v>
+        <v>130865014</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>58043</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3925,34 +3916,43 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>468481</v>
+        <v>468521</v>
       </c>
       <c r="R33" t="n">
-        <v>7017551</v>
+        <v>7017519</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -5309,10 +5309,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131031771</v>
+        <v>131030656</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5320,34 +5320,39 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>468053</v>
+        <v>468332</v>
       </c>
       <c r="R45" t="n">
-        <v>7017383</v>
+        <v>7017164</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5379,7 +5384,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5389,7 +5394,12 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:59</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Gott om barkfläkta granar i området</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5416,10 +5426,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131030403</v>
+        <v>131031771</v>
       </c>
       <c r="B46" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5427,39 +5437,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>468347</v>
+        <v>468053</v>
       </c>
       <c r="R46" t="n">
-        <v>7017234</v>
+        <v>7017383</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5491,7 +5496,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5501,12 +5506,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:49</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>Barkfläkta granar i området</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5533,7 +5533,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131030207</v>
+        <v>131030403</v>
       </c>
       <c r="B47" t="n">
         <v>57884</v>
@@ -5573,13 +5573,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>468282</v>
+        <v>468347</v>
       </c>
       <c r="R47" t="n">
-        <v>7017338</v>
+        <v>7017234</v>
       </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5618,12 +5618,12 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Barkfläkta granar i området</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5650,7 +5650,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131030656</v>
+        <v>131030207</v>
       </c>
       <c r="B48" t="n">
         <v>57884</v>
@@ -5681,7 +5681,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -5690,13 +5690,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>468332</v>
+        <v>468282</v>
       </c>
       <c r="R48" t="n">
-        <v>7017164</v>
+        <v>7017338</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5735,12 +5735,12 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Gott om barkfläkta granar i området</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5767,10 +5767,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131031626</v>
+        <v>131030164</v>
       </c>
       <c r="B49" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5778,39 +5778,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>468198</v>
+        <v>468269</v>
       </c>
       <c r="R49" t="n">
-        <v>7017261</v>
+        <v>7017349</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5842,7 +5837,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5852,12 +5847,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>14:28</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Barkfläkt gran</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5884,10 +5874,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131030164</v>
+        <v>131031626</v>
       </c>
       <c r="B50" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5895,34 +5885,39 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>468269</v>
+        <v>468198</v>
       </c>
       <c r="R50" t="n">
-        <v>7017349</v>
+        <v>7017261</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5954,7 +5949,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>14:28</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5964,7 +5959,12 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>14:28</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>Barkfläkt gran</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -7116,45 +7116,54 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131031735</v>
+        <v>131031510</v>
       </c>
       <c r="B61" t="n">
-        <v>91804</v>
+        <v>58256</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1108</v>
+        <v>103015</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>468074</v>
+        <v>468222</v>
       </c>
       <c r="R61" t="n">
-        <v>7017313</v>
+        <v>7017146</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7186,7 +7195,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7196,7 +7205,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7223,10 +7232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131031575</v>
+        <v>131031735</v>
       </c>
       <c r="B62" t="n">
-        <v>80348</v>
+        <v>91804</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7234,21 +7243,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6458</v>
+        <v>1108</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7258,10 +7267,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>468209</v>
+        <v>468074</v>
       </c>
       <c r="R62" t="n">
-        <v>7017210</v>
+        <v>7017313</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7293,7 +7302,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7303,12 +7312,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>14:25</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>På sälg</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7335,54 +7339,45 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131031510</v>
+        <v>131031575</v>
       </c>
       <c r="B63" t="n">
-        <v>58256</v>
+        <v>80348</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>103015</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>468222</v>
+        <v>468209</v>
       </c>
       <c r="R63" t="n">
-        <v>7017146</v>
+        <v>7017210</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7414,7 +7409,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7424,7 +7419,12 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:25</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8048,10 +8048,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131051511</v>
+        <v>131051508</v>
       </c>
       <c r="B70" t="n">
-        <v>79243</v>
+        <v>92106</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8059,21 +8059,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>468075</v>
+        <v>468291</v>
       </c>
       <c r="R70" t="n">
-        <v>7017357</v>
+        <v>7017134</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8145,7 +8145,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131051494</v>
+        <v>131051511</v>
       </c>
       <c r="B71" t="n">
         <v>79243</v>
@@ -8180,10 +8180,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>468190</v>
+        <v>468075</v>
       </c>
       <c r="R71" t="n">
-        <v>7017343</v>
+        <v>7017357</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131051490</v>
+        <v>131051494</v>
       </c>
       <c r="B72" t="n">
         <v>79243</v>
@@ -8277,10 +8277,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>468271</v>
+        <v>468190</v>
       </c>
       <c r="R72" t="n">
-        <v>7017382</v>
+        <v>7017343</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8313,11 +8313,6 @@
       <c r="AA72" t="inlineStr">
         <is>
           <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="AC72" t="inlineStr">
-        <is>
-          <t>bål 0,4 m lång</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8344,10 +8339,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131051508</v>
+        <v>131051490</v>
       </c>
       <c r="B73" t="n">
-        <v>92106</v>
+        <v>79243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8355,21 +8350,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8379,10 +8374,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>468291</v>
+        <v>468271</v>
       </c>
       <c r="R73" t="n">
-        <v>7017134</v>
+        <v>7017382</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8415,6 +8410,11 @@
       <c r="AA73" t="inlineStr">
         <is>
           <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>bål 0,4 m lång</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9227,10 +9227,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131051496</v>
+        <v>131051489</v>
       </c>
       <c r="B82" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9238,21 +9238,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>468306</v>
+        <v>468318</v>
       </c>
       <c r="R82" t="n">
-        <v>7017299</v>
+        <v>7017322</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9298,6 +9298,11 @@
       <c r="AA82" t="inlineStr">
         <is>
           <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>Smal bål 0,5 m lång</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9324,10 +9329,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131051489</v>
+        <v>131051496</v>
       </c>
       <c r="B83" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9335,21 +9340,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9359,10 +9364,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>468318</v>
+        <v>468306</v>
       </c>
       <c r="R83" t="n">
-        <v>7017322</v>
+        <v>7017299</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9395,11 +9400,6 @@
       <c r="AA83" t="inlineStr">
         <is>
           <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="AC83" t="inlineStr">
-        <is>
-          <t>Smal bål 0,5 m lång</t>
         </is>
       </c>
       <c r="AD83" t="b">

--- a/artfynd/A 3992-2026 artfynd.xlsx
+++ b/artfynd/A 3992-2026 artfynd.xlsx
@@ -5309,10 +5309,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131030656</v>
+        <v>131031771</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5320,39 +5320,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>468332</v>
+        <v>468053</v>
       </c>
       <c r="R45" t="n">
-        <v>7017164</v>
+        <v>7017383</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5384,7 +5379,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5394,12 +5389,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:59</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Gott om barkfläkta granar i området</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5426,10 +5416,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131031771</v>
+        <v>131030656</v>
       </c>
       <c r="B46" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5437,34 +5427,39 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>468053</v>
+        <v>468332</v>
       </c>
       <c r="R46" t="n">
-        <v>7017383</v>
+        <v>7017164</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5496,7 +5491,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5506,7 +5501,12 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:59</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>Gott om barkfläkta granar i området</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -7660,10 +7660,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131051493</v>
+        <v>131051504</v>
       </c>
       <c r="B66" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7671,21 +7671,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7695,10 +7695,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>468072</v>
+        <v>468300</v>
       </c>
       <c r="R66" t="n">
-        <v>7017314</v>
+        <v>7017272</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7757,10 +7757,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131051504</v>
+        <v>131051493</v>
       </c>
       <c r="B67" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7768,21 +7768,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -7792,10 +7792,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>468300</v>
+        <v>468072</v>
       </c>
       <c r="R67" t="n">
-        <v>7017272</v>
+        <v>7017314</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>

--- a/artfynd/A 3992-2026 artfynd.xlsx
+++ b/artfynd/A 3992-2026 artfynd.xlsx
@@ -5416,7 +5416,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131030656</v>
+        <v>131030403</v>
       </c>
       <c r="B46" t="n">
         <v>57884</v>
@@ -5447,7 +5447,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -5456,10 +5456,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>468332</v>
+        <v>468347</v>
       </c>
       <c r="R46" t="n">
-        <v>7017164</v>
+        <v>7017234</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5501,12 +5501,12 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Gott om barkfläkta granar i området</t>
+          <t>Barkfläkta granar i området</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5533,7 +5533,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131030403</v>
+        <v>131030207</v>
       </c>
       <c r="B47" t="n">
         <v>57884</v>
@@ -5573,13 +5573,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>468347</v>
+        <v>468282</v>
       </c>
       <c r="R47" t="n">
-        <v>7017234</v>
+        <v>7017338</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5618,12 +5618,12 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Barkfläkta granar i området</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5650,7 +5650,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131030207</v>
+        <v>131030656</v>
       </c>
       <c r="B48" t="n">
         <v>57884</v>
@@ -5681,7 +5681,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -5690,13 +5690,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>468282</v>
+        <v>468332</v>
       </c>
       <c r="R48" t="n">
-        <v>7017338</v>
+        <v>7017164</v>
       </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5735,12 +5735,12 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Gott om barkfläkta granar i området</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6653,10 +6653,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131031498</v>
+        <v>131029927</v>
       </c>
       <c r="B57" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6664,50 +6664,43 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>hane</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>468224</v>
+        <v>468509</v>
       </c>
       <c r="R57" t="n">
-        <v>7017146</v>
+        <v>7017474</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6739,7 +6732,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6749,12 +6742,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Bearbetade medelgrov gran. Flög över till klenare gran när jag närmade mig men förvånansvärt obrydd.</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6893,10 +6881,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131029927</v>
+        <v>131031498</v>
       </c>
       <c r="B59" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6904,43 +6892,50 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>hane</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>468509</v>
+        <v>468224</v>
       </c>
       <c r="R59" t="n">
-        <v>7017474</v>
+        <v>7017146</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6972,7 +6967,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6982,7 +6977,12 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>Bearbetade medelgrov gran. Flög över till klenare gran när jag närmade mig men förvånansvärt obrydd.</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7660,10 +7660,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131051504</v>
+        <v>131051493</v>
       </c>
       <c r="B66" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7671,21 +7671,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7695,10 +7695,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>468300</v>
+        <v>468072</v>
       </c>
       <c r="R66" t="n">
-        <v>7017272</v>
+        <v>7017314</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7757,10 +7757,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131051493</v>
+        <v>131051504</v>
       </c>
       <c r="B67" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7768,21 +7768,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -7792,10 +7792,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>468072</v>
+        <v>468300</v>
       </c>
       <c r="R67" t="n">
-        <v>7017314</v>
+        <v>7017272</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8048,10 +8048,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131051508</v>
+        <v>131051494</v>
       </c>
       <c r="B70" t="n">
-        <v>92106</v>
+        <v>79243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8059,21 +8059,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>468291</v>
+        <v>468190</v>
       </c>
       <c r="R70" t="n">
-        <v>7017134</v>
+        <v>7017343</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8145,10 +8145,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131051511</v>
+        <v>131051508</v>
       </c>
       <c r="B71" t="n">
-        <v>79243</v>
+        <v>92106</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8156,21 +8156,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8180,10 +8180,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>468075</v>
+        <v>468291</v>
       </c>
       <c r="R71" t="n">
-        <v>7017357</v>
+        <v>7017134</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131051494</v>
+        <v>131051490</v>
       </c>
       <c r="B72" t="n">
         <v>79243</v>
@@ -8277,10 +8277,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>468190</v>
+        <v>468271</v>
       </c>
       <c r="R72" t="n">
-        <v>7017343</v>
+        <v>7017382</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8313,6 +8313,11 @@
       <c r="AA72" t="inlineStr">
         <is>
           <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>bål 0,4 m lång</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8339,7 +8344,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131051490</v>
+        <v>131051511</v>
       </c>
       <c r="B73" t="n">
         <v>79243</v>
@@ -8374,10 +8379,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>468271</v>
+        <v>468075</v>
       </c>
       <c r="R73" t="n">
-        <v>7017382</v>
+        <v>7017357</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8410,11 +8415,6 @@
       <c r="AA73" t="inlineStr">
         <is>
           <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>bål 0,4 m lång</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9227,10 +9227,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131051489</v>
+        <v>131051496</v>
       </c>
       <c r="B82" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9238,21 +9238,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>468318</v>
+        <v>468306</v>
       </c>
       <c r="R82" t="n">
-        <v>7017322</v>
+        <v>7017299</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9298,11 +9298,6 @@
       <c r="AA82" t="inlineStr">
         <is>
           <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="AC82" t="inlineStr">
-        <is>
-          <t>Smal bål 0,5 m lång</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9329,10 +9324,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131051496</v>
+        <v>131051489</v>
       </c>
       <c r="B83" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9340,21 +9335,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9364,10 +9359,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>468306</v>
+        <v>468318</v>
       </c>
       <c r="R83" t="n">
-        <v>7017299</v>
+        <v>7017322</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9400,6 +9395,11 @@
       <c r="AA83" t="inlineStr">
         <is>
           <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>Smal bål 0,5 m lång</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9426,10 +9426,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131051497</v>
+        <v>131051486</v>
       </c>
       <c r="B84" t="n">
-        <v>91828</v>
+        <v>91808</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9437,19 +9437,23 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
@@ -9457,10 +9461,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>468258</v>
+        <v>468362</v>
       </c>
       <c r="R84" t="n">
-        <v>7017130</v>
+        <v>7017236</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9616,10 +9620,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131051486</v>
+        <v>131051497</v>
       </c>
       <c r="B86" t="n">
-        <v>91808</v>
+        <v>91828</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9627,23 +9631,19 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
@@ -9651,10 +9651,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>468362</v>
+        <v>468258</v>
       </c>
       <c r="R86" t="n">
-        <v>7017236</v>
+        <v>7017130</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9713,10 +9713,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131051503</v>
+        <v>131051495</v>
       </c>
       <c r="B87" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9724,21 +9724,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -9748,10 +9748,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>468303</v>
+        <v>468306</v>
       </c>
       <c r="R87" t="n">
-        <v>7017139</v>
+        <v>7017299</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9810,10 +9810,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131051495</v>
+        <v>131051503</v>
       </c>
       <c r="B88" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9821,21 +9821,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -9845,10 +9845,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>468306</v>
+        <v>468303</v>
       </c>
       <c r="R88" t="n">
-        <v>7017299</v>
+        <v>7017139</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>

--- a/artfynd/A 3992-2026 artfynd.xlsx
+++ b/artfynd/A 3992-2026 artfynd.xlsx
@@ -2770,10 +2770,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130865266</v>
+        <v>130865254</v>
       </c>
       <c r="B23" t="n">
-        <v>91804</v>
+        <v>57881</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2781,34 +2781,39 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1108</v>
+        <v>100049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>468470</v>
+        <v>468479</v>
       </c>
       <c r="R23" t="n">
-        <v>7017481</v>
+        <v>7017488</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2840,7 +2845,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -2850,7 +2855,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:19</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Bearbetad grov död gran</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2877,10 +2887,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130865254</v>
+        <v>130865266</v>
       </c>
       <c r="B24" t="n">
-        <v>57881</v>
+        <v>91804</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2888,39 +2898,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100049</v>
+        <v>1108</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>468479</v>
+        <v>468470</v>
       </c>
       <c r="R24" t="n">
-        <v>7017488</v>
+        <v>7017481</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2952,7 +2957,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -2962,12 +2967,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:19</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Bearbetad grov död gran</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -2994,10 +2994,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130865182</v>
+        <v>130865004</v>
       </c>
       <c r="B25" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3005,34 +3005,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>468493</v>
+        <v>468518</v>
       </c>
       <c r="R25" t="n">
-        <v>7017468</v>
+        <v>7017522</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3064,7 +3069,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3074,7 +3079,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3101,10 +3111,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130865004</v>
+        <v>130865182</v>
       </c>
       <c r="B26" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3112,39 +3122,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>468518</v>
+        <v>468493</v>
       </c>
       <c r="R26" t="n">
-        <v>7017522</v>
+        <v>7017468</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3176,7 +3181,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3186,12 +3191,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -6653,10 +6653,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131029927</v>
+        <v>131031498</v>
       </c>
       <c r="B57" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6664,43 +6664,50 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>hane</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>468509</v>
+        <v>468224</v>
       </c>
       <c r="R57" t="n">
-        <v>7017474</v>
+        <v>7017146</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6732,7 +6739,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6742,7 +6749,12 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Bearbetade medelgrov gran. Flög över till klenare gran när jag närmade mig men förvånansvärt obrydd.</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6881,10 +6893,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131031498</v>
+        <v>131029927</v>
       </c>
       <c r="B59" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6892,50 +6904,43 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>hane</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr"/>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>468224</v>
+        <v>468509</v>
       </c>
       <c r="R59" t="n">
-        <v>7017146</v>
+        <v>7017474</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6967,7 +6972,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6977,12 +6982,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>Bearbetade medelgrov gran. Flög över till klenare gran när jag närmade mig men förvånansvärt obrydd.</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7116,54 +7116,45 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131031510</v>
+        <v>131031735</v>
       </c>
       <c r="B61" t="n">
-        <v>58256</v>
+        <v>91804</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>103015</v>
+        <v>1108</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>468222</v>
+        <v>468074</v>
       </c>
       <c r="R61" t="n">
-        <v>7017146</v>
+        <v>7017313</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7195,7 +7186,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7205,7 +7196,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7232,10 +7223,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131031735</v>
+        <v>131031575</v>
       </c>
       <c r="B62" t="n">
-        <v>91804</v>
+        <v>80348</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7243,21 +7234,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1108</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7267,10 +7258,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>468074</v>
+        <v>468209</v>
       </c>
       <c r="R62" t="n">
-        <v>7017313</v>
+        <v>7017210</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7302,7 +7293,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7312,7 +7303,12 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:25</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7339,45 +7335,54 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131031575</v>
+        <v>131031510</v>
       </c>
       <c r="B63" t="n">
-        <v>80348</v>
+        <v>58256</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6458</v>
+        <v>103015</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>468209</v>
+        <v>468222</v>
       </c>
       <c r="R63" t="n">
-        <v>7017210</v>
+        <v>7017146</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7409,7 +7414,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7419,12 +7424,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>14:25</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>På sälg</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7660,10 +7660,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131051493</v>
+        <v>131051504</v>
       </c>
       <c r="B66" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7671,21 +7671,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7695,10 +7695,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>468072</v>
+        <v>468300</v>
       </c>
       <c r="R66" t="n">
-        <v>7017314</v>
+        <v>7017272</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7757,10 +7757,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131051504</v>
+        <v>131051493</v>
       </c>
       <c r="B67" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7768,21 +7768,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -7792,10 +7792,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>468300</v>
+        <v>468072</v>
       </c>
       <c r="R67" t="n">
-        <v>7017272</v>
+        <v>7017314</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131051494</v>
+        <v>131051511</v>
       </c>
       <c r="B70" t="n">
         <v>79243</v>
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>468190</v>
+        <v>468075</v>
       </c>
       <c r="R70" t="n">
-        <v>7017343</v>
+        <v>7017357</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8145,10 +8145,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131051508</v>
+        <v>131051494</v>
       </c>
       <c r="B71" t="n">
-        <v>92106</v>
+        <v>79243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8156,21 +8156,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8180,10 +8180,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>468291</v>
+        <v>468190</v>
       </c>
       <c r="R71" t="n">
-        <v>7017134</v>
+        <v>7017343</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8344,10 +8344,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131051511</v>
+        <v>131051508</v>
       </c>
       <c r="B73" t="n">
-        <v>79243</v>
+        <v>92106</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8355,21 +8355,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8379,10 +8379,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>468075</v>
+        <v>468291</v>
       </c>
       <c r="R73" t="n">
-        <v>7017357</v>
+        <v>7017134</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9227,10 +9227,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131051496</v>
+        <v>131051489</v>
       </c>
       <c r="B82" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9238,21 +9238,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>468306</v>
+        <v>468318</v>
       </c>
       <c r="R82" t="n">
-        <v>7017299</v>
+        <v>7017322</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9298,6 +9298,11 @@
       <c r="AA82" t="inlineStr">
         <is>
           <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>Smal bål 0,5 m lång</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9324,10 +9329,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131051489</v>
+        <v>131051496</v>
       </c>
       <c r="B83" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9335,21 +9340,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9359,10 +9364,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>468318</v>
+        <v>468306</v>
       </c>
       <c r="R83" t="n">
-        <v>7017322</v>
+        <v>7017299</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9395,11 +9400,6 @@
       <c r="AA83" t="inlineStr">
         <is>
           <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="AC83" t="inlineStr">
-        <is>
-          <t>Smal bål 0,5 m lång</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9426,10 +9426,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131051486</v>
+        <v>131051497</v>
       </c>
       <c r="B84" t="n">
-        <v>91808</v>
+        <v>91828</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9437,23 +9437,19 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
@@ -9461,10 +9457,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>468362</v>
+        <v>468258</v>
       </c>
       <c r="R84" t="n">
-        <v>7017236</v>
+        <v>7017130</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9620,10 +9616,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131051497</v>
+        <v>131051486</v>
       </c>
       <c r="B86" t="n">
-        <v>91828</v>
+        <v>91808</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9631,19 +9627,23 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
       <c r="I86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
@@ -9651,10 +9651,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>468258</v>
+        <v>468362</v>
       </c>
       <c r="R86" t="n">
-        <v>7017130</v>
+        <v>7017236</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9713,10 +9713,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131051495</v>
+        <v>131051503</v>
       </c>
       <c r="B87" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9724,21 +9724,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -9748,10 +9748,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>468306</v>
+        <v>468303</v>
       </c>
       <c r="R87" t="n">
-        <v>7017299</v>
+        <v>7017139</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9810,10 +9810,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131051503</v>
+        <v>131051495</v>
       </c>
       <c r="B88" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9821,21 +9821,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -9845,10 +9845,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>468303</v>
+        <v>468306</v>
       </c>
       <c r="R88" t="n">
-        <v>7017139</v>
+        <v>7017299</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>

--- a/artfynd/A 3992-2026 artfynd.xlsx
+++ b/artfynd/A 3992-2026 artfynd.xlsx
@@ -2770,10 +2770,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130865254</v>
+        <v>130865266</v>
       </c>
       <c r="B23" t="n">
-        <v>57881</v>
+        <v>91804</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2781,39 +2781,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100049</v>
+        <v>1108</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>468479</v>
+        <v>468470</v>
       </c>
       <c r="R23" t="n">
-        <v>7017488</v>
+        <v>7017481</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2845,7 +2840,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -2855,12 +2850,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:19</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Bearbetad grov död gran</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2887,10 +2877,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130865266</v>
+        <v>130865254</v>
       </c>
       <c r="B24" t="n">
-        <v>91804</v>
+        <v>57881</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2898,34 +2888,39 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1108</v>
+        <v>100049</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>468470</v>
+        <v>468479</v>
       </c>
       <c r="R24" t="n">
-        <v>7017481</v>
+        <v>7017488</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2957,7 +2952,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -2967,7 +2962,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:19</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Bearbetad grov död gran</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -5076,10 +5076,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131031743</v>
+        <v>131029902</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5087,34 +5087,48 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>i par</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>par i lämplig häckbiotop</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>468070</v>
+        <v>468507</v>
       </c>
       <c r="R43" t="n">
-        <v>7017311</v>
+        <v>7017469</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5146,7 +5160,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5156,7 +5170,12 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>13:10</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>2+1. Födosök på samma gran. Mycket höga livsmiljövärden för tretå i närområdet. Tredje fågel flög bort.</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5183,10 +5202,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131029902</v>
+        <v>131031743</v>
       </c>
       <c r="B44" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5194,48 +5213,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>i par</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>par i lämplig häckbiotop</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>468507</v>
+        <v>468070</v>
       </c>
       <c r="R44" t="n">
-        <v>7017469</v>
+        <v>7017311</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5267,7 +5272,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5277,12 +5282,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>13:10</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>2+1. Födosök på samma gran. Mycket höga livsmiljövärden för tretå i närområdet. Tredje fågel flög bort.</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5309,10 +5309,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131031771</v>
+        <v>131030403</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5320,34 +5320,39 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>468053</v>
+        <v>468347</v>
       </c>
       <c r="R45" t="n">
-        <v>7017383</v>
+        <v>7017234</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5379,7 +5384,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5389,7 +5394,12 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:49</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Barkfläkta granar i området</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5416,7 +5426,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131030403</v>
+        <v>131030207</v>
       </c>
       <c r="B46" t="n">
         <v>57884</v>
@@ -5456,13 +5466,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>468347</v>
+        <v>468282</v>
       </c>
       <c r="R46" t="n">
-        <v>7017234</v>
+        <v>7017338</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5491,7 +5501,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5501,12 +5511,12 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Barkfläkta granar i området</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5533,7 +5543,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131030207</v>
+        <v>131030656</v>
       </c>
       <c r="B47" t="n">
         <v>57884</v>
@@ -5564,7 +5574,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5573,13 +5583,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>468282</v>
+        <v>468332</v>
       </c>
       <c r="R47" t="n">
-        <v>7017338</v>
+        <v>7017164</v>
       </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5608,7 +5618,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5618,12 +5628,12 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Gott om barkfläkta granar i området</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5650,10 +5660,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131030656</v>
+        <v>131031771</v>
       </c>
       <c r="B48" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5661,39 +5671,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>468332</v>
+        <v>468053</v>
       </c>
       <c r="R48" t="n">
-        <v>7017164</v>
+        <v>7017383</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5725,7 +5730,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5735,12 +5740,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>13:59</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Gott om barkfläkta granar i området</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6546,10 +6546,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131030313</v>
+        <v>131030174</v>
       </c>
       <c r="B56" t="n">
-        <v>80348</v>
+        <v>58043</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6557,37 +6557,42 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>468321</v>
+        <v>468273</v>
       </c>
       <c r="R56" t="n">
-        <v>7017305</v>
+        <v>7017348</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -6616,7 +6621,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6626,7 +6631,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6653,10 +6658,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131031498</v>
+        <v>131029927</v>
       </c>
       <c r="B57" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6664,50 +6669,43 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>hane</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>468224</v>
+        <v>468509</v>
       </c>
       <c r="R57" t="n">
-        <v>7017146</v>
+        <v>7017474</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6739,7 +6737,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6749,12 +6747,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Bearbetade medelgrov gran. Flög över till klenare gran när jag närmade mig men förvånansvärt obrydd.</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6781,10 +6774,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131030174</v>
+        <v>131030313</v>
       </c>
       <c r="B58" t="n">
-        <v>58043</v>
+        <v>80348</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6792,42 +6785,37 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>103021</v>
+        <v>6458</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>468273</v>
+        <v>468321</v>
       </c>
       <c r="R58" t="n">
-        <v>7017348</v>
+        <v>7017305</v>
       </c>
       <c r="S58" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -6856,7 +6844,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6866,7 +6854,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6893,10 +6881,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131029927</v>
+        <v>131031498</v>
       </c>
       <c r="B59" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6904,43 +6892,50 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>hane</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>468509</v>
+        <v>468224</v>
       </c>
       <c r="R59" t="n">
-        <v>7017474</v>
+        <v>7017146</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6972,7 +6967,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6982,7 +6977,12 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>Bearbetade medelgrov gran. Flög över till klenare gran när jag närmade mig men förvånansvärt obrydd.</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7223,45 +7223,54 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131031575</v>
+        <v>131031510</v>
       </c>
       <c r="B62" t="n">
-        <v>80348</v>
+        <v>58256</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6458</v>
+        <v>103015</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>468209</v>
+        <v>468222</v>
       </c>
       <c r="R62" t="n">
-        <v>7017210</v>
+        <v>7017146</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7293,7 +7302,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7303,12 +7312,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>14:25</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>På sälg</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7335,54 +7339,45 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131031510</v>
+        <v>131031575</v>
       </c>
       <c r="B63" t="n">
-        <v>58256</v>
+        <v>80348</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>103015</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>468222</v>
+        <v>468209</v>
       </c>
       <c r="R63" t="n">
-        <v>7017146</v>
+        <v>7017210</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7414,7 +7409,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7424,7 +7419,12 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:25</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7660,10 +7660,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131051504</v>
+        <v>131051493</v>
       </c>
       <c r="B66" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7671,21 +7671,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7695,10 +7695,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>468300</v>
+        <v>468072</v>
       </c>
       <c r="R66" t="n">
-        <v>7017272</v>
+        <v>7017314</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7757,10 +7757,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131051493</v>
+        <v>131051504</v>
       </c>
       <c r="B67" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7768,21 +7768,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -7792,10 +7792,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>468072</v>
+        <v>468300</v>
       </c>
       <c r="R67" t="n">
-        <v>7017314</v>
+        <v>7017272</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8048,10 +8048,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131051511</v>
+        <v>131051508</v>
       </c>
       <c r="B70" t="n">
-        <v>79243</v>
+        <v>92106</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8059,21 +8059,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>468075</v>
+        <v>468291</v>
       </c>
       <c r="R70" t="n">
-        <v>7017357</v>
+        <v>7017134</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8145,7 +8145,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131051494</v>
+        <v>131051511</v>
       </c>
       <c r="B71" t="n">
         <v>79243</v>
@@ -8180,10 +8180,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>468190</v>
+        <v>468075</v>
       </c>
       <c r="R71" t="n">
-        <v>7017343</v>
+        <v>7017357</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131051490</v>
+        <v>131051494</v>
       </c>
       <c r="B72" t="n">
         <v>79243</v>
@@ -8277,10 +8277,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>468271</v>
+        <v>468190</v>
       </c>
       <c r="R72" t="n">
-        <v>7017382</v>
+        <v>7017343</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8313,11 +8313,6 @@
       <c r="AA72" t="inlineStr">
         <is>
           <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="AC72" t="inlineStr">
-        <is>
-          <t>bål 0,4 m lång</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8344,10 +8339,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131051508</v>
+        <v>131051490</v>
       </c>
       <c r="B73" t="n">
-        <v>92106</v>
+        <v>79243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8355,21 +8350,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8379,10 +8374,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>468291</v>
+        <v>468271</v>
       </c>
       <c r="R73" t="n">
-        <v>7017134</v>
+        <v>7017382</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8415,6 +8410,11 @@
       <c r="AA73" t="inlineStr">
         <is>
           <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>bål 0,4 m lång</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8829,10 +8829,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131051483</v>
+        <v>131051491</v>
       </c>
       <c r="B78" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8840,34 +8840,39 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr">
         <is>
           <t>Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>468300</v>
+        <v>468383</v>
       </c>
       <c r="R78" t="n">
-        <v>7017272</v>
+        <v>7017207</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8900,6 +8905,11 @@
       <c r="AA78" t="inlineStr">
         <is>
           <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>Ringhack på tall. Med kådflöde.</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -8926,10 +8936,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131051491</v>
+        <v>131051483</v>
       </c>
       <c r="B79" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8937,39 +8947,34 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P79" t="inlineStr">
         <is>
           <t>Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>468383</v>
+        <v>468300</v>
       </c>
       <c r="R79" t="n">
-        <v>7017207</v>
+        <v>7017272</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9002,11 +9007,6 @@
       <c r="AA79" t="inlineStr">
         <is>
           <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="AC79" t="inlineStr">
-        <is>
-          <t>Ringhack på tall. Med kådflöde.</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9033,10 +9033,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131051492</v>
+        <v>131051482</v>
       </c>
       <c r="B80" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9044,21 +9044,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9068,10 +9068,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>468247</v>
+        <v>468092</v>
       </c>
       <c r="R80" t="n">
-        <v>7017186</v>
+        <v>7017317</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9130,10 +9130,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131051482</v>
+        <v>131051492</v>
       </c>
       <c r="B81" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9141,21 +9141,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9165,10 +9165,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>468092</v>
+        <v>468247</v>
       </c>
       <c r="R81" t="n">
-        <v>7017317</v>
+        <v>7017186</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9227,10 +9227,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131051489</v>
+        <v>131051496</v>
       </c>
       <c r="B82" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9238,21 +9238,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>468318</v>
+        <v>468306</v>
       </c>
       <c r="R82" t="n">
-        <v>7017322</v>
+        <v>7017299</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9298,11 +9298,6 @@
       <c r="AA82" t="inlineStr">
         <is>
           <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="AC82" t="inlineStr">
-        <is>
-          <t>Smal bål 0,5 m lång</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9329,10 +9324,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131051496</v>
+        <v>131051489</v>
       </c>
       <c r="B83" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9340,21 +9335,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9364,10 +9359,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>468306</v>
+        <v>468318</v>
       </c>
       <c r="R83" t="n">
-        <v>7017299</v>
+        <v>7017322</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9400,6 +9395,11 @@
       <c r="AA83" t="inlineStr">
         <is>
           <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>Smal bål 0,5 m lång</t>
         </is>
       </c>
       <c r="AD83" t="b">

--- a/artfynd/A 3992-2026 artfynd.xlsx
+++ b/artfynd/A 3992-2026 artfynd.xlsx
@@ -2994,10 +2994,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130865004</v>
+        <v>130865182</v>
       </c>
       <c r="B25" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3005,39 +3005,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>468518</v>
+        <v>468493</v>
       </c>
       <c r="R25" t="n">
-        <v>7017522</v>
+        <v>7017468</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3069,7 +3064,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3079,12 +3074,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3111,10 +3101,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130865182</v>
+        <v>130865004</v>
       </c>
       <c r="B26" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3122,34 +3112,39 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>468493</v>
+        <v>468518</v>
       </c>
       <c r="R26" t="n">
-        <v>7017468</v>
+        <v>7017522</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3181,7 +3176,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3191,7 +3186,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -5076,10 +5076,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131029902</v>
+        <v>131031743</v>
       </c>
       <c r="B43" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5087,48 +5087,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>i par</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>par i lämplig häckbiotop</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>468507</v>
+        <v>468070</v>
       </c>
       <c r="R43" t="n">
-        <v>7017469</v>
+        <v>7017311</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5160,7 +5146,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5170,12 +5156,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:10</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>2+1. Födosök på samma gran. Mycket höga livsmiljövärden för tretå i närområdet. Tredje fågel flög bort.</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5202,10 +5183,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131031743</v>
+        <v>131029902</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5213,34 +5194,48 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>i par</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>par i lämplig häckbiotop</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>468070</v>
+        <v>468507</v>
       </c>
       <c r="R44" t="n">
-        <v>7017311</v>
+        <v>7017469</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5272,7 +5267,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5282,7 +5277,12 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>13:10</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>2+1. Födosök på samma gran. Mycket höga livsmiljövärden för tretå i närområdet. Tredje fågel flög bort.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6546,10 +6546,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131030174</v>
+        <v>131030313</v>
       </c>
       <c r="B56" t="n">
-        <v>58043</v>
+        <v>80348</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6557,42 +6557,37 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>103021</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>468273</v>
+        <v>468321</v>
       </c>
       <c r="R56" t="n">
-        <v>7017348</v>
+        <v>7017305</v>
       </c>
       <c r="S56" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -6621,7 +6616,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6631,7 +6626,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6658,7 +6653,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131029927</v>
+        <v>131030174</v>
       </c>
       <c r="B57" t="n">
         <v>58043</v>
@@ -6686,11 +6681,7 @@
           <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
           <t>lockläte, övriga läten</t>
@@ -6698,14 +6689,14 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>468509</v>
+        <v>468273</v>
       </c>
       <c r="R57" t="n">
-        <v>7017474</v>
+        <v>7017348</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6737,7 +6728,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6747,7 +6738,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6774,10 +6765,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131030313</v>
+        <v>131029927</v>
       </c>
       <c r="B58" t="n">
-        <v>80348</v>
+        <v>58043</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6785,37 +6776,46 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>468321</v>
+        <v>468509</v>
       </c>
       <c r="R58" t="n">
-        <v>7017305</v>
+        <v>7017474</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6854,7 +6854,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7116,45 +7116,54 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131031735</v>
+        <v>131031510</v>
       </c>
       <c r="B61" t="n">
-        <v>91804</v>
+        <v>58256</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1108</v>
+        <v>103015</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>468074</v>
+        <v>468222</v>
       </c>
       <c r="R61" t="n">
-        <v>7017313</v>
+        <v>7017146</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7186,7 +7195,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7196,7 +7205,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7223,54 +7232,45 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131031510</v>
+        <v>131031575</v>
       </c>
       <c r="B62" t="n">
-        <v>58256</v>
+        <v>80348</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>103015</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>468222</v>
+        <v>468209</v>
       </c>
       <c r="R62" t="n">
-        <v>7017146</v>
+        <v>7017210</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7302,7 +7302,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7312,7 +7312,12 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:25</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7339,10 +7344,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131031575</v>
+        <v>131031735</v>
       </c>
       <c r="B63" t="n">
-        <v>80348</v>
+        <v>91804</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7350,21 +7355,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6458</v>
+        <v>1108</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7374,10 +7379,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>468209</v>
+        <v>468074</v>
       </c>
       <c r="R63" t="n">
-        <v>7017210</v>
+        <v>7017313</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7409,7 +7414,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7419,12 +7424,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>14:25</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>På sälg</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8829,10 +8829,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131051491</v>
+        <v>131051483</v>
       </c>
       <c r="B78" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8840,39 +8840,34 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P78" t="inlineStr">
         <is>
           <t>Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>468383</v>
+        <v>468300</v>
       </c>
       <c r="R78" t="n">
-        <v>7017207</v>
+        <v>7017272</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8905,11 +8900,6 @@
       <c r="AA78" t="inlineStr">
         <is>
           <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="AC78" t="inlineStr">
-        <is>
-          <t>Ringhack på tall. Med kådflöde.</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -8936,10 +8926,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131051483</v>
+        <v>131051491</v>
       </c>
       <c r="B79" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8947,34 +8937,39 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
           <t>Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>468300</v>
+        <v>468383</v>
       </c>
       <c r="R79" t="n">
-        <v>7017272</v>
+        <v>7017207</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9007,6 +9002,11 @@
       <c r="AA79" t="inlineStr">
         <is>
           <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>Ringhack på tall. Med kådflöde.</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9227,10 +9227,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131051496</v>
+        <v>131051489</v>
       </c>
       <c r="B82" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9238,21 +9238,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>468306</v>
+        <v>468318</v>
       </c>
       <c r="R82" t="n">
-        <v>7017299</v>
+        <v>7017322</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9298,6 +9298,11 @@
       <c r="AA82" t="inlineStr">
         <is>
           <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>Smal bål 0,5 m lång</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9324,10 +9329,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131051489</v>
+        <v>131051496</v>
       </c>
       <c r="B83" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9335,21 +9340,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9359,10 +9364,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>468318</v>
+        <v>468306</v>
       </c>
       <c r="R83" t="n">
-        <v>7017322</v>
+        <v>7017299</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9395,11 +9400,6 @@
       <c r="AA83" t="inlineStr">
         <is>
           <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="AC83" t="inlineStr">
-        <is>
-          <t>Smal bål 0,5 m lång</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9426,10 +9426,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131051497</v>
+        <v>131051498</v>
       </c>
       <c r="B84" t="n">
-        <v>91828</v>
+        <v>91808</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9437,19 +9437,23 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
@@ -9519,7 +9523,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131051498</v>
+        <v>131051486</v>
       </c>
       <c r="B85" t="n">
         <v>91808</v>
@@ -9554,10 +9558,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>468258</v>
+        <v>468362</v>
       </c>
       <c r="R85" t="n">
-        <v>7017130</v>
+        <v>7017236</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9616,10 +9620,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131051486</v>
+        <v>131051497</v>
       </c>
       <c r="B86" t="n">
-        <v>91808</v>
+        <v>91828</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9627,23 +9631,19 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
@@ -9651,10 +9651,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>468362</v>
+        <v>468258</v>
       </c>
       <c r="R86" t="n">
-        <v>7017236</v>
+        <v>7017130</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9907,10 +9907,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131051512</v>
+        <v>131051513</v>
       </c>
       <c r="B89" t="n">
-        <v>91808</v>
+        <v>92106</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9918,21 +9918,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -9942,10 +9942,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>468093</v>
+        <v>468342</v>
       </c>
       <c r="R89" t="n">
-        <v>7017305</v>
+        <v>7017232</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10004,10 +10004,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131051513</v>
+        <v>131051512</v>
       </c>
       <c r="B90" t="n">
-        <v>92106</v>
+        <v>91808</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10015,21 +10015,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10039,10 +10039,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>468342</v>
+        <v>468093</v>
       </c>
       <c r="R90" t="n">
-        <v>7017232</v>
+        <v>7017305</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>

--- a/artfynd/A 3992-2026 artfynd.xlsx
+++ b/artfynd/A 3992-2026 artfynd.xlsx
@@ -2994,10 +2994,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130865182</v>
+        <v>130865004</v>
       </c>
       <c r="B25" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3005,34 +3005,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>468493</v>
+        <v>468518</v>
       </c>
       <c r="R25" t="n">
-        <v>7017468</v>
+        <v>7017522</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3064,7 +3069,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3074,7 +3079,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3101,10 +3111,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130865004</v>
+        <v>130865182</v>
       </c>
       <c r="B26" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3112,39 +3122,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>468518</v>
+        <v>468493</v>
       </c>
       <c r="R26" t="n">
-        <v>7017522</v>
+        <v>7017468</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3176,7 +3181,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3186,12 +3191,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -5309,10 +5309,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131030403</v>
+        <v>131031771</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5320,39 +5320,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>468347</v>
+        <v>468053</v>
       </c>
       <c r="R45" t="n">
-        <v>7017234</v>
+        <v>7017383</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5384,7 +5379,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5394,12 +5389,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:49</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Barkfläkta granar i området</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5426,7 +5416,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131030207</v>
+        <v>131030403</v>
       </c>
       <c r="B46" t="n">
         <v>57884</v>
@@ -5466,13 +5456,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>468282</v>
+        <v>468347</v>
       </c>
       <c r="R46" t="n">
-        <v>7017338</v>
+        <v>7017234</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5501,7 +5491,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5511,12 +5501,12 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Barkfläkta granar i området</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5543,7 +5533,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131030656</v>
+        <v>131030207</v>
       </c>
       <c r="B47" t="n">
         <v>57884</v>
@@ -5574,7 +5564,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5583,13 +5573,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>468332</v>
+        <v>468282</v>
       </c>
       <c r="R47" t="n">
-        <v>7017164</v>
+        <v>7017338</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5618,7 +5608,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5628,12 +5618,12 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Gott om barkfläkta granar i området</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5660,10 +5650,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131031771</v>
+        <v>131030656</v>
       </c>
       <c r="B48" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5671,34 +5661,39 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>468053</v>
+        <v>468332</v>
       </c>
       <c r="R48" t="n">
-        <v>7017383</v>
+        <v>7017164</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5730,7 +5725,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5740,7 +5735,12 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:59</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Gott om barkfläkta granar i området</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -7116,54 +7116,45 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131031510</v>
+        <v>131031575</v>
       </c>
       <c r="B61" t="n">
-        <v>58256</v>
+        <v>80348</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>103015</v>
+        <v>6458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>468222</v>
+        <v>468209</v>
       </c>
       <c r="R61" t="n">
-        <v>7017146</v>
+        <v>7017210</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7195,7 +7186,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7205,7 +7196,12 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:25</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7232,10 +7228,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131031575</v>
+        <v>131031735</v>
       </c>
       <c r="B62" t="n">
-        <v>80348</v>
+        <v>91804</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7243,21 +7239,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6458</v>
+        <v>1108</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7267,10 +7263,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>468209</v>
+        <v>468074</v>
       </c>
       <c r="R62" t="n">
-        <v>7017210</v>
+        <v>7017313</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7302,7 +7298,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7312,12 +7308,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>14:25</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>På sälg</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7344,45 +7335,54 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131031735</v>
+        <v>131031510</v>
       </c>
       <c r="B63" t="n">
-        <v>91804</v>
+        <v>58256</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1108</v>
+        <v>103015</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>468074</v>
+        <v>468222</v>
       </c>
       <c r="R63" t="n">
-        <v>7017313</v>
+        <v>7017146</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7414,7 +7414,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8829,10 +8829,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131051483</v>
+        <v>131051491</v>
       </c>
       <c r="B78" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8840,34 +8840,39 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr">
         <is>
           <t>Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>468300</v>
+        <v>468383</v>
       </c>
       <c r="R78" t="n">
-        <v>7017272</v>
+        <v>7017207</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8900,6 +8905,11 @@
       <c r="AA78" t="inlineStr">
         <is>
           <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>Ringhack på tall. Med kådflöde.</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -8926,10 +8936,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131051491</v>
+        <v>131051483</v>
       </c>
       <c r="B79" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8937,39 +8947,34 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P79" t="inlineStr">
         <is>
           <t>Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>468383</v>
+        <v>468300</v>
       </c>
       <c r="R79" t="n">
-        <v>7017207</v>
+        <v>7017272</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9002,11 +9007,6 @@
       <c r="AA79" t="inlineStr">
         <is>
           <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="AC79" t="inlineStr">
-        <is>
-          <t>Ringhack på tall. Med kådflöde.</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9033,10 +9033,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131051482</v>
+        <v>131051492</v>
       </c>
       <c r="B80" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9044,21 +9044,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9068,10 +9068,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>468092</v>
+        <v>468247</v>
       </c>
       <c r="R80" t="n">
-        <v>7017317</v>
+        <v>7017186</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9130,10 +9130,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131051492</v>
+        <v>131051482</v>
       </c>
       <c r="B81" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9141,21 +9141,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9165,10 +9165,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>468247</v>
+        <v>468092</v>
       </c>
       <c r="R81" t="n">
-        <v>7017186</v>
+        <v>7017317</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9227,10 +9227,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131051489</v>
+        <v>131051496</v>
       </c>
       <c r="B82" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9238,21 +9238,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>468318</v>
+        <v>468306</v>
       </c>
       <c r="R82" t="n">
-        <v>7017322</v>
+        <v>7017299</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9298,11 +9298,6 @@
       <c r="AA82" t="inlineStr">
         <is>
           <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="AC82" t="inlineStr">
-        <is>
-          <t>Smal bål 0,5 m lång</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9329,10 +9324,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131051496</v>
+        <v>131051489</v>
       </c>
       <c r="B83" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9340,21 +9335,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9364,10 +9359,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>468306</v>
+        <v>468318</v>
       </c>
       <c r="R83" t="n">
-        <v>7017299</v>
+        <v>7017322</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9400,6 +9395,11 @@
       <c r="AA83" t="inlineStr">
         <is>
           <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>Smal bål 0,5 m lång</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9907,10 +9907,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131051513</v>
+        <v>131051512</v>
       </c>
       <c r="B89" t="n">
-        <v>92106</v>
+        <v>91808</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9918,21 +9918,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -9942,10 +9942,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>468342</v>
+        <v>468093</v>
       </c>
       <c r="R89" t="n">
-        <v>7017232</v>
+        <v>7017305</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10004,10 +10004,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131051512</v>
+        <v>131051513</v>
       </c>
       <c r="B90" t="n">
-        <v>91808</v>
+        <v>92106</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10015,21 +10015,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10039,10 +10039,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>468093</v>
+        <v>468342</v>
       </c>
       <c r="R90" t="n">
-        <v>7017305</v>
+        <v>7017232</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>

--- a/artfynd/A 3992-2026 artfynd.xlsx
+++ b/artfynd/A 3992-2026 artfynd.xlsx
@@ -2770,10 +2770,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130865266</v>
+        <v>130865254</v>
       </c>
       <c r="B23" t="n">
-        <v>91804</v>
+        <v>57881</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2781,34 +2781,39 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1108</v>
+        <v>100049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>468470</v>
+        <v>468479</v>
       </c>
       <c r="R23" t="n">
-        <v>7017481</v>
+        <v>7017488</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2840,7 +2845,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -2850,7 +2855,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:19</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Bearbetad grov död gran</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2877,10 +2887,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130865254</v>
+        <v>130865266</v>
       </c>
       <c r="B24" t="n">
-        <v>57881</v>
+        <v>91805</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2888,39 +2898,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100049</v>
+        <v>1108</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>468479</v>
+        <v>468470</v>
       </c>
       <c r="R24" t="n">
-        <v>7017488</v>
+        <v>7017481</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2952,7 +2957,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -2962,12 +2967,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:19</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Bearbetad grov död gran</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3114,7 +3114,7 @@
         <v>130865182</v>
       </c>
       <c r="B26" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>130865357</v>
       </c>
       <c r="B27" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3798,10 +3798,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130865481</v>
+        <v>130865014</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>58043</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3809,34 +3809,43 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>468481</v>
+        <v>468521</v>
       </c>
       <c r="R32" t="n">
-        <v>7017551</v>
+        <v>7017519</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -3868,7 +3877,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -3878,7 +3887,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3905,10 +3914,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130865014</v>
+        <v>130865481</v>
       </c>
       <c r="B33" t="n">
-        <v>58043</v>
+        <v>79244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3916,43 +3925,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>468521</v>
+        <v>468481</v>
       </c>
       <c r="R33" t="n">
-        <v>7017519</v>
+        <v>7017551</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4140,7 +4140,7 @@
         <v>131014503</v>
       </c>
       <c r="B35" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>131005337</v>
       </c>
       <c r="B39" t="n">
-        <v>79000</v>
+        <v>79001</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>131031743</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5309,10 +5309,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131031771</v>
+        <v>131030207</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5320,37 +5320,42 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>468053</v>
+        <v>468282</v>
       </c>
       <c r="R45" t="n">
-        <v>7017383</v>
+        <v>7017338</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5379,7 +5384,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5389,7 +5394,12 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:33</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5416,7 +5426,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131030403</v>
+        <v>131030656</v>
       </c>
       <c r="B46" t="n">
         <v>57884</v>
@@ -5447,7 +5457,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -5456,10 +5466,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>468347</v>
+        <v>468332</v>
       </c>
       <c r="R46" t="n">
-        <v>7017234</v>
+        <v>7017164</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5491,7 +5501,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5501,12 +5511,12 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Barkfläkta granar i området</t>
+          <t>Gott om barkfläkta granar i området</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5533,10 +5543,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131030207</v>
+        <v>131031771</v>
       </c>
       <c r="B47" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5544,42 +5554,37 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>468282</v>
+        <v>468053</v>
       </c>
       <c r="R47" t="n">
-        <v>7017338</v>
+        <v>7017383</v>
       </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5608,7 +5613,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5618,12 +5623,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>13:33</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5650,7 +5650,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131030656</v>
+        <v>131030403</v>
       </c>
       <c r="B48" t="n">
         <v>57884</v>
@@ -5681,7 +5681,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -5690,10 +5690,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>468332</v>
+        <v>468347</v>
       </c>
       <c r="R48" t="n">
-        <v>7017164</v>
+        <v>7017234</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5735,12 +5735,12 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Gott om barkfläkta granar i området</t>
+          <t>Barkfläkta granar i området</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5770,7 +5770,7 @@
         <v>131030164</v>
       </c>
       <c r="B49" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>131030316</v>
       </c>
       <c r="B51" t="n">
-        <v>80377</v>
+        <v>80378</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>131030066</v>
       </c>
       <c r="B52" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>131031769</v>
       </c>
       <c r="B55" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>131030313</v>
       </c>
       <c r="B56" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6653,10 +6653,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131030174</v>
+        <v>131031498</v>
       </c>
       <c r="B57" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6664,39 +6664,50 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>468273</v>
+        <v>468224</v>
       </c>
       <c r="R57" t="n">
-        <v>7017348</v>
+        <v>7017146</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6728,7 +6739,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6738,7 +6749,12 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Bearbetade medelgrov gran. Flög över till klenare gran när jag närmade mig men förvånansvärt obrydd.</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6765,7 +6781,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131029927</v>
+        <v>131030174</v>
       </c>
       <c r="B58" t="n">
         <v>58043</v>
@@ -6793,11 +6809,7 @@
           <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
           <t>lockläte, övriga läten</t>
@@ -6805,14 +6817,14 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>468509</v>
+        <v>468273</v>
       </c>
       <c r="R58" t="n">
-        <v>7017474</v>
+        <v>7017348</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6844,7 +6856,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6854,7 +6866,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6881,10 +6893,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131031498</v>
+        <v>131029927</v>
       </c>
       <c r="B59" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6892,50 +6904,43 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>hane</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr"/>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>468224</v>
+        <v>468509</v>
       </c>
       <c r="R59" t="n">
-        <v>7017146</v>
+        <v>7017474</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6967,7 +6972,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6977,12 +6982,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>Bearbetade medelgrov gran. Flög över till klenare gran när jag närmade mig men förvånansvärt obrydd.</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7012,7 +7012,7 @@
         <v>131030168</v>
       </c>
       <c r="B60" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>131031575</v>
       </c>
       <c r="B61" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7228,45 +7228,54 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131031735</v>
+        <v>131031510</v>
       </c>
       <c r="B62" t="n">
-        <v>91804</v>
+        <v>58256</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1108</v>
+        <v>103015</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>468074</v>
+        <v>468222</v>
       </c>
       <c r="R62" t="n">
-        <v>7017313</v>
+        <v>7017146</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7298,7 +7307,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7308,7 +7317,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7335,54 +7344,45 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131031510</v>
+        <v>131031735</v>
       </c>
       <c r="B63" t="n">
-        <v>58256</v>
+        <v>91805</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>103015</v>
+        <v>1108</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>468222</v>
+        <v>468074</v>
       </c>
       <c r="R63" t="n">
-        <v>7017146</v>
+        <v>7017313</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7414,7 +7414,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7556,7 +7556,7 @@
         <v>131030429</v>
       </c>
       <c r="B65" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>131051493</v>
       </c>
       <c r="B66" t="n">
-        <v>91804</v>
+        <v>91805</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>131051504</v>
       </c>
       <c r="B67" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>131051506</v>
       </c>
       <c r="B68" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>131051507</v>
       </c>
       <c r="B69" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8048,10 +8048,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131051508</v>
+        <v>131051511</v>
       </c>
       <c r="B70" t="n">
-        <v>92106</v>
+        <v>79244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8059,21 +8059,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>468291</v>
+        <v>468075</v>
       </c>
       <c r="R70" t="n">
-        <v>7017134</v>
+        <v>7017357</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8145,10 +8145,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131051511</v>
+        <v>131051494</v>
       </c>
       <c r="B71" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8180,10 +8180,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>468075</v>
+        <v>468190</v>
       </c>
       <c r="R71" t="n">
-        <v>7017357</v>
+        <v>7017343</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8242,10 +8242,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131051494</v>
+        <v>131051490</v>
       </c>
       <c r="B72" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8277,10 +8277,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>468190</v>
+        <v>468271</v>
       </c>
       <c r="R72" t="n">
-        <v>7017343</v>
+        <v>7017382</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8313,6 +8313,11 @@
       <c r="AA72" t="inlineStr">
         <is>
           <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>bål 0,4 m lång</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8339,10 +8344,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131051490</v>
+        <v>131051508</v>
       </c>
       <c r="B73" t="n">
-        <v>79243</v>
+        <v>92107</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8350,21 +8355,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8374,10 +8379,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>468271</v>
+        <v>468291</v>
       </c>
       <c r="R73" t="n">
-        <v>7017382</v>
+        <v>7017134</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8410,11 +8415,6 @@
       <c r="AA73" t="inlineStr">
         <is>
           <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>bål 0,4 m lång</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8444,7 +8444,7 @@
         <v>131051514</v>
       </c>
       <c r="B74" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>131051501</v>
       </c>
       <c r="B75" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>131051487</v>
       </c>
       <c r="B76" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>131051481</v>
       </c>
       <c r="B77" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8829,10 +8829,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131051491</v>
+        <v>131051483</v>
       </c>
       <c r="B78" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8840,39 +8840,34 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P78" t="inlineStr">
         <is>
           <t>Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>468383</v>
+        <v>468300</v>
       </c>
       <c r="R78" t="n">
-        <v>7017207</v>
+        <v>7017272</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8905,11 +8900,6 @@
       <c r="AA78" t="inlineStr">
         <is>
           <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="AC78" t="inlineStr">
-        <is>
-          <t>Ringhack på tall. Med kådflöde.</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -8936,10 +8926,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131051483</v>
+        <v>131051491</v>
       </c>
       <c r="B79" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8947,34 +8937,39 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
           <t>Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>468300</v>
+        <v>468383</v>
       </c>
       <c r="R79" t="n">
-        <v>7017272</v>
+        <v>7017207</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9007,6 +9002,11 @@
       <c r="AA79" t="inlineStr">
         <is>
           <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>Ringhack på tall. Med kådflöde.</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9036,7 +9036,7 @@
         <v>131051492</v>
       </c>
       <c r="B80" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>131051482</v>
       </c>
       <c r="B81" t="n">
-        <v>91804</v>
+        <v>91805</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9227,10 +9227,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131051496</v>
+        <v>131051489</v>
       </c>
       <c r="B82" t="n">
-        <v>91808</v>
+        <v>79244</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9238,21 +9238,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>468306</v>
+        <v>468318</v>
       </c>
       <c r="R82" t="n">
-        <v>7017299</v>
+        <v>7017322</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9298,6 +9298,11 @@
       <c r="AA82" t="inlineStr">
         <is>
           <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>Smal bål 0,5 m lång</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9324,10 +9329,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131051489</v>
+        <v>131051496</v>
       </c>
       <c r="B83" t="n">
-        <v>79243</v>
+        <v>91809</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9335,21 +9340,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9359,10 +9364,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>468318</v>
+        <v>468306</v>
       </c>
       <c r="R83" t="n">
-        <v>7017322</v>
+        <v>7017299</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9395,11 +9400,6 @@
       <c r="AA83" t="inlineStr">
         <is>
           <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="AC83" t="inlineStr">
-        <is>
-          <t>Smal bål 0,5 m lång</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9426,10 +9426,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131051498</v>
+        <v>131051497</v>
       </c>
       <c r="B84" t="n">
-        <v>91808</v>
+        <v>91829</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9437,23 +9437,19 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
@@ -9523,10 +9519,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131051486</v>
+        <v>131051498</v>
       </c>
       <c r="B85" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9558,10 +9554,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>468362</v>
+        <v>468258</v>
       </c>
       <c r="R85" t="n">
-        <v>7017236</v>
+        <v>7017130</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9620,10 +9616,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131051497</v>
+        <v>131051486</v>
       </c>
       <c r="B86" t="n">
-        <v>91828</v>
+        <v>91809</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9631,19 +9627,23 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
       <c r="I86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
@@ -9651,10 +9651,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>468258</v>
+        <v>468362</v>
       </c>
       <c r="R86" t="n">
-        <v>7017130</v>
+        <v>7017236</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9713,10 +9713,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131051503</v>
+        <v>131051495</v>
       </c>
       <c r="B87" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9724,21 +9724,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -9748,10 +9748,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>468303</v>
+        <v>468306</v>
       </c>
       <c r="R87" t="n">
-        <v>7017139</v>
+        <v>7017299</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9810,10 +9810,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131051495</v>
+        <v>131051503</v>
       </c>
       <c r="B88" t="n">
-        <v>80348</v>
+        <v>79244</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9821,21 +9821,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -9845,10 +9845,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>468306</v>
+        <v>468303</v>
       </c>
       <c r="R88" t="n">
-        <v>7017299</v>
+        <v>7017139</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -9910,7 +9910,7 @@
         <v>131051512</v>
       </c>
       <c r="B89" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>131051513</v>
       </c>
       <c r="B90" t="n">
-        <v>92106</v>
+        <v>92107</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10104,7 +10104,7 @@
         <v>131051502</v>
       </c>
       <c r="B91" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>131051488</v>
       </c>
       <c r="B92" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>

--- a/artfynd/A 3992-2026 artfynd.xlsx
+++ b/artfynd/A 3992-2026 artfynd.xlsx
@@ -2770,10 +2770,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130865254</v>
+        <v>130865266</v>
       </c>
       <c r="B23" t="n">
-        <v>57881</v>
+        <v>91805</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2781,39 +2781,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100049</v>
+        <v>1108</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>468479</v>
+        <v>468470</v>
       </c>
       <c r="R23" t="n">
-        <v>7017488</v>
+        <v>7017481</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2845,7 +2840,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -2855,12 +2850,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:19</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Bearbetad grov död gran</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2887,10 +2877,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130865266</v>
+        <v>130865254</v>
       </c>
       <c r="B24" t="n">
-        <v>91805</v>
+        <v>57881</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2898,34 +2888,39 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1108</v>
+        <v>100049</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>468470</v>
+        <v>468479</v>
       </c>
       <c r="R24" t="n">
-        <v>7017481</v>
+        <v>7017488</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2957,7 +2952,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -2967,7 +2962,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:19</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Bearbetad grov död gran</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -2994,10 +2994,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130865004</v>
+        <v>130865182</v>
       </c>
       <c r="B25" t="n">
-        <v>57884</v>
+        <v>91809</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3005,39 +3005,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>468518</v>
+        <v>468493</v>
       </c>
       <c r="R25" t="n">
-        <v>7017522</v>
+        <v>7017468</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3069,7 +3064,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3079,12 +3074,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3111,10 +3101,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130865182</v>
+        <v>130865004</v>
       </c>
       <c r="B26" t="n">
-        <v>91809</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3122,34 +3112,39 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>468493</v>
+        <v>468518</v>
       </c>
       <c r="R26" t="n">
-        <v>7017468</v>
+        <v>7017522</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3181,7 +3176,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3191,7 +3186,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -5309,10 +5309,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131030207</v>
+        <v>131031771</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5320,42 +5320,37 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>468282</v>
+        <v>468053</v>
       </c>
       <c r="R45" t="n">
-        <v>7017338</v>
+        <v>7017383</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5384,7 +5379,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5394,12 +5389,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:33</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5426,7 +5416,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131030656</v>
+        <v>131030403</v>
       </c>
       <c r="B46" t="n">
         <v>57884</v>
@@ -5457,7 +5447,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -5466,10 +5456,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>468332</v>
+        <v>468347</v>
       </c>
       <c r="R46" t="n">
-        <v>7017164</v>
+        <v>7017234</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5501,7 +5491,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5511,12 +5501,12 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Gott om barkfläkta granar i området</t>
+          <t>Barkfläkta granar i området</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5543,10 +5533,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131031771</v>
+        <v>131030207</v>
       </c>
       <c r="B47" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5554,37 +5544,42 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>468053</v>
+        <v>468282</v>
       </c>
       <c r="R47" t="n">
-        <v>7017383</v>
+        <v>7017338</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5613,7 +5608,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5623,7 +5618,12 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>13:33</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5650,7 +5650,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131030403</v>
+        <v>131030656</v>
       </c>
       <c r="B48" t="n">
         <v>57884</v>
@@ -5681,7 +5681,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -5690,10 +5690,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>468347</v>
+        <v>468332</v>
       </c>
       <c r="R48" t="n">
-        <v>7017234</v>
+        <v>7017164</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5735,12 +5735,12 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Barkfläkta granar i området</t>
+          <t>Gott om barkfläkta granar i området</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5767,10 +5767,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131030164</v>
+        <v>131031626</v>
       </c>
       <c r="B49" t="n">
-        <v>91809</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5778,34 +5778,39 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>468269</v>
+        <v>468198</v>
       </c>
       <c r="R49" t="n">
-        <v>7017349</v>
+        <v>7017261</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5837,7 +5842,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>14:28</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5847,7 +5852,12 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>14:28</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Barkfläkt gran</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5874,10 +5884,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131031626</v>
+        <v>131030164</v>
       </c>
       <c r="B50" t="n">
-        <v>57884</v>
+        <v>91809</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5885,39 +5895,34 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>468198</v>
+        <v>468269</v>
       </c>
       <c r="R50" t="n">
-        <v>7017261</v>
+        <v>7017349</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5949,7 +5954,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5959,12 +5964,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>14:28</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>Barkfläkt gran</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -7116,45 +7116,54 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131031575</v>
+        <v>131031510</v>
       </c>
       <c r="B61" t="n">
-        <v>80349</v>
+        <v>58256</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6458</v>
+        <v>103015</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
+          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>468209</v>
+        <v>468222</v>
       </c>
       <c r="R61" t="n">
-        <v>7017210</v>
+        <v>7017146</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7186,7 +7195,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7196,12 +7205,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>14:25</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>På sälg</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7228,54 +7232,45 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131031510</v>
+        <v>131031735</v>
       </c>
       <c r="B62" t="n">
-        <v>58256</v>
+        <v>91805</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>103015</v>
+        <v>1108</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Stacktjärnen, Rödön, Stacktjärnen, Rödön, Jmt</t>
+          <t>Stacktjärnen, Stacktjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>468222</v>
+        <v>468074</v>
       </c>
       <c r="R62" t="n">
-        <v>7017146</v>
+        <v>7017313</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7307,7 +7302,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7317,7 +7312,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7344,10 +7339,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131031735</v>
+        <v>131031575</v>
       </c>
       <c r="B63" t="n">
-        <v>91805</v>
+        <v>80349</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7355,21 +7350,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1108</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7379,10 +7374,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>468074</v>
+        <v>468209</v>
       </c>
       <c r="R63" t="n">
-        <v>7017313</v>
+        <v>7017210</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7414,7 +7409,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7424,7 +7419,12 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:25</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7660,10 +7660,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131051493</v>
+        <v>131051504</v>
       </c>
       <c r="B66" t="n">
-        <v>91805</v>
+        <v>79244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7671,21 +7671,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7695,10 +7695,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>468072</v>
+        <v>468300</v>
       </c>
       <c r="R66" t="n">
-        <v>7017314</v>
+        <v>7017272</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7757,10 +7757,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131051504</v>
+        <v>131051493</v>
       </c>
       <c r="B67" t="n">
-        <v>79244</v>
+        <v>91805</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7768,21 +7768,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -7792,10 +7792,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>468300</v>
+        <v>468072</v>
       </c>
       <c r="R67" t="n">
-        <v>7017272</v>
+        <v>7017314</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -9713,10 +9713,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131051495</v>
+        <v>131051503</v>
       </c>
       <c r="B87" t="n">
-        <v>80349</v>
+        <v>79244</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9724,21 +9724,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -9748,10 +9748,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>468306</v>
+        <v>468303</v>
       </c>
       <c r="R87" t="n">
-        <v>7017299</v>
+        <v>7017139</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9810,10 +9810,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131051503</v>
+        <v>131051495</v>
       </c>
       <c r="B88" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9821,21 +9821,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -9845,10 +9845,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>468303</v>
+        <v>468306</v>
       </c>
       <c r="R88" t="n">
-        <v>7017139</v>
+        <v>7017299</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
